--- a/7_gunluk.xlsx
+++ b/7_gunluk.xlsx
@@ -544,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="D12">
-        <v>2.375</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -586,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.223529411764706</v>
+        <v>3.261538461538461</v>
       </c>
       <c r="D13">
-        <v>2.941176470588236</v>
+        <v>2.846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -600,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.3</v>
+        <v>5.32</v>
       </c>
       <c r="D14">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -614,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.377777777777778</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="D15">
-        <v>6.111111111111111</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -628,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.816666666666666</v>
+        <v>7.18</v>
       </c>
       <c r="D16">
-        <v>6.166666666666667</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.285714285714286</v>
+        <v>6.659999999999999</v>
       </c>
       <c r="D17">
-        <v>5.714285714285714</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.6</v>
+        <v>7.230769230769231</v>
       </c>
       <c r="D18">
-        <v>8.25</v>
+        <v>8.076923076923077</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.975</v>
+        <v>6.985714285714286</v>
       </c>
       <c r="D19">
-        <v>7.625</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.616666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D20">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.88</v>
+        <v>7.533333333333333</v>
       </c>
       <c r="D21">
-        <v>7.3</v>
+        <v>7.333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.542857142857143</v>
+        <v>7.111111111111111</v>
       </c>
       <c r="D22">
-        <v>6.142857142857143</v>
+        <v>6.777777777777778</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -726,10 +726,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.672727272727273</v>
+        <v>5.0625</v>
       </c>
       <c r="D23">
-        <v>5.363636363636363</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -740,10 +740,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.32</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0.09090909090909091</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -908,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>2.56</v>
+        <v>2.036363636363636</v>
       </c>
       <c r="D36">
-        <v>2.8</v>
+        <v>2.090909090909091</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -922,10 +922,10 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>3.285714285714286</v>
+        <v>3.447058823529412</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>3.058823529411764</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -936,10 +936,10 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>5.94</v>
+        <v>5.74</v>
       </c>
       <c r="D38">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -950,10 +950,10 @@
         <v>13</v>
       </c>
       <c r="C39">
-        <v>6.6</v>
+        <v>5.876923076923076</v>
       </c>
       <c r="D39">
-        <v>6.25</v>
+        <v>5.615384615384615</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -964,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>6.58</v>
+        <v>5.8</v>
       </c>
       <c r="D40">
-        <v>6.3</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -978,10 +978,10 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>6.666666666666667</v>
+        <v>6.545454545454546</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -992,10 +992,10 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <v>6.733333333333333</v>
+        <v>6.675</v>
       </c>
       <c r="D42">
-        <v>8.166666666666666</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="C43">
-        <v>7.211764705882352</v>
+        <v>6.893333333333334</v>
       </c>
       <c r="D43">
-        <v>7.470588235294118</v>
+        <v>7.133333333333334</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1020,10 +1020,10 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>7.328571428571428</v>
+        <v>7.188888888888889</v>
       </c>
       <c r="D44">
-        <v>7.357142857142857</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1034,10 +1034,10 @@
         <v>19</v>
       </c>
       <c r="C45">
-        <v>7.472727272727273</v>
+        <v>7.44</v>
       </c>
       <c r="D45">
-        <v>6.727272727272728</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1048,10 +1048,10 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>6.929411764705883</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>6.529411764705882</v>
+        <v>6.533333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1062,10 +1062,10 @@
         <v>21</v>
       </c>
       <c r="C47">
-        <v>5.76</v>
+        <v>5.127272727272727</v>
       </c>
       <c r="D47">
-        <v>5.9</v>
+        <v>4.727272727272728</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1076,10 +1076,10 @@
         <v>22</v>
       </c>
       <c r="C48">
-        <v>1.763636363636363</v>
+        <v>1.054545454545454</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1.636363636363636</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>0.1466666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>2.64</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="D60">
-        <v>2.533333333333333</v>
+        <v>2.357142857142857</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1258,10 +1258,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>3.707692307692308</v>
+        <v>3.163636363636364</v>
       </c>
       <c r="D61">
-        <v>3.538461538461538</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1272,10 +1272,10 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>5.257142857142857</v>
+        <v>5.644444444444444</v>
       </c>
       <c r="D62">
-        <v>4.857142857142857</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1286,10 +1286,10 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>6.683333333333334</v>
+        <v>6.214285714285714</v>
       </c>
       <c r="D63">
-        <v>6.583333333333333</v>
+        <v>6.214285714285714</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1300,10 +1300,10 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>6.84</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D64">
-        <v>6.266666666666667</v>
+        <v>6.444444444444445</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1314,10 +1314,10 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>6.949999999999999</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D65">
-        <v>6.75</v>
+        <v>6.071428571428571</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1328,10 +1328,10 @@
         <v>16</v>
       </c>
       <c r="C66">
-        <v>7.654545454545455</v>
+        <v>6.957142857142857</v>
       </c>
       <c r="D66">
-        <v>8.636363636363637</v>
+        <v>8.214285714285714</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1342,10 +1342,10 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <v>7.155555555555556</v>
+        <v>7.2875</v>
       </c>
       <c r="D67">
-        <v>7.555555555555555</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1356,10 +1356,10 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>7.418181818181818</v>
+        <v>7.092307692307693</v>
       </c>
       <c r="D68">
-        <v>7.090909090909091</v>
+        <v>7.153846153846154</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1370,10 +1370,10 @@
         <v>19</v>
       </c>
       <c r="C69">
-        <v>7.425</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1384,10 +1384,10 @@
         <v>20</v>
       </c>
       <c r="C70">
-        <v>6.9</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="D70">
-        <v>6.375</v>
+        <v>5.583333333333333</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1398,10 +1398,10 @@
         <v>21</v>
       </c>
       <c r="C71">
-        <v>4.675</v>
+        <v>4.54</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1412,10 +1412,10 @@
         <v>22</v>
       </c>
       <c r="C72">
-        <v>1.683333333333333</v>
+        <v>1.414285714285714</v>
       </c>
       <c r="D72">
-        <v>1.833333333333333</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1426,10 +1426,10 @@
         <v>23</v>
       </c>
       <c r="C73">
-        <v>0.075</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1580,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>2.622222222222222</v>
+        <v>2.636363636363636</v>
       </c>
       <c r="D84">
-        <v>2.222222222222222</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1594,10 +1594,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>3.333333333333333</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="D85">
-        <v>2.888888888888889</v>
+        <v>3.083333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1608,10 +1608,10 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>5.899999999999999</v>
+        <v>5.24</v>
       </c>
       <c r="D86">
-        <v>5.333333333333333</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1622,10 +1622,10 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>6.781818181818181</v>
+        <v>5.966666666666666</v>
       </c>
       <c r="D87">
-        <v>6.454545454545454</v>
+        <v>5.916666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1636,10 +1636,10 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>7.5</v>
+        <v>7.05</v>
       </c>
       <c r="D88">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1650,10 +1650,10 @@
         <v>15</v>
       </c>
       <c r="C89">
-        <v>7.25</v>
+        <v>6.984615384615385</v>
       </c>
       <c r="D89">
-        <v>7.375</v>
+        <v>6.538461538461538</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1664,10 +1664,10 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>7.449999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1678,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="C91">
-        <v>7.7</v>
+        <v>8.015384615384615</v>
       </c>
       <c r="D91">
-        <v>8.5</v>
+        <v>8.692307692307692</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1692,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="C92">
-        <v>8.173333333333334</v>
+        <v>8.18</v>
       </c>
       <c r="D92">
         <v>8.6</v>
@@ -1706,10 +1706,10 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>8.6</v>
+        <v>8.18</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1720,10 +1720,10 @@
         <v>20</v>
       </c>
       <c r="C94">
-        <v>7.436363636363637</v>
+        <v>6.716666666666666</v>
       </c>
       <c r="D94">
-        <v>7.454545454545454</v>
+        <v>6.916666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1734,10 +1734,10 @@
         <v>21</v>
       </c>
       <c r="C95">
-        <v>5.769230769230769</v>
+        <v>6.12</v>
       </c>
       <c r="D95">
-        <v>5.846153846153846</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1748,10 +1748,10 @@
         <v>22</v>
       </c>
       <c r="C96">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="D96">
-        <v>2.444444444444445</v>
+        <v>1.916666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1762,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="C97">
-        <v>0.05</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>3.44</v>
+        <v>3.309090909090909</v>
       </c>
       <c r="D108">
-        <v>3.2</v>
+        <v>3.363636363636364</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1930,10 +1930,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>4.98</v>
+        <v>4.64</v>
       </c>
       <c r="D109">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1944,10 +1944,10 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>6.55</v>
+        <v>6.466666666666667</v>
       </c>
       <c r="D110">
-        <v>6.875</v>
+        <v>6.777777777777778</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1958,10 +1958,10 @@
         <v>13</v>
       </c>
       <c r="C111">
-        <v>7.036363636363637</v>
+        <v>7.127272727272728</v>
       </c>
       <c r="D111">
-        <v>7.545454545454546</v>
+        <v>7.454545454545454</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1972,10 +1972,10 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>7.836363636363637</v>
+        <v>8.036363636363637</v>
       </c>
       <c r="D112">
-        <v>7.727272727272728</v>
+        <v>7.363636363636363</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1986,10 +1986,10 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>8.9</v>
+        <v>8.254545454545454</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>7.272727272727272</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2000,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="C114">
-        <v>8.733333333333333</v>
+        <v>8.82</v>
       </c>
       <c r="D114">
-        <v>10.33333333333333</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2014,10 +2014,10 @@
         <v>17</v>
       </c>
       <c r="C115">
-        <v>8.377777777777778</v>
+        <v>8.4</v>
       </c>
       <c r="D115">
-        <v>9.555555555555555</v>
+        <v>8.818181818181818</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2028,10 +2028,10 @@
         <v>18</v>
       </c>
       <c r="C116">
-        <v>8.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D116">
-        <v>8.916666666666666</v>
+        <v>8.066666666666666</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2042,10 +2042,10 @@
         <v>19</v>
       </c>
       <c r="C117">
-        <v>7.659999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="D117">
-        <v>7.1</v>
+        <v>6.214285714285714</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2056,10 +2056,10 @@
         <v>20</v>
       </c>
       <c r="C118">
-        <v>6.022222222222222</v>
+        <v>6.107692307692307</v>
       </c>
       <c r="D118">
-        <v>5.888888888888889</v>
+        <v>5.846153846153846</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2070,10 +2070,10 @@
         <v>21</v>
       </c>
       <c r="C119">
-        <v>4.230769230769231</v>
+        <v>3.844444444444445</v>
       </c>
       <c r="D119">
-        <v>4.153846153846154</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2084,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="C120">
-        <v>0.5846153846153845</v>
+        <v>1.78</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2098,7 +2098,7 @@
         <v>23</v>
       </c>
       <c r="C121">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2252,10 +2252,10 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>2.054545454545455</v>
+        <v>2.171428571428572</v>
       </c>
       <c r="D132">
-        <v>1.818181818181818</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2266,10 +2266,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="D133">
-        <v>3.125</v>
+        <v>2.142857142857143</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2280,10 +2280,10 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>4.600000000000001</v>
+        <v>4.711111111111111</v>
       </c>
       <c r="D134">
-        <v>4.454545454545454</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2294,10 +2294,10 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <v>5.633333333333333</v>
+        <v>5.4</v>
       </c>
       <c r="D135">
-        <v>5.166666666666667</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2308,10 +2308,10 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <v>6.363636363636363</v>
+        <v>5.885714285714286</v>
       </c>
       <c r="D136">
-        <v>5.909090909090909</v>
+        <v>5.857142857142857</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2322,10 +2322,10 @@
         <v>15</v>
       </c>
       <c r="C137">
-        <v>5.885714285714286</v>
+        <v>5.866666666666666</v>
       </c>
       <c r="D137">
-        <v>5.714285714285714</v>
+        <v>5.933333333333334</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2336,10 +2336,10 @@
         <v>16</v>
       </c>
       <c r="C138">
-        <v>7</v>
+        <v>6.646153846153847</v>
       </c>
       <c r="D138">
-        <v>7.454545454545454</v>
+        <v>7.846153846153846</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2350,10 +2350,10 @@
         <v>17</v>
       </c>
       <c r="C139">
-        <v>6.8375</v>
+        <v>6.463157894736842</v>
       </c>
       <c r="D139">
-        <v>7.1875</v>
+        <v>7.052631578947368</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2364,10 +2364,10 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>6.640000000000001</v>
+        <v>5.76</v>
       </c>
       <c r="D140">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2378,10 +2378,10 @@
         <v>19</v>
       </c>
       <c r="C141">
-        <v>6.44</v>
+        <v>6.727272727272728</v>
       </c>
       <c r="D141">
-        <v>6.3</v>
+        <v>6.727272727272728</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2392,10 +2392,10 @@
         <v>20</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>5.685714285714285</v>
       </c>
       <c r="D142">
-        <v>5.25</v>
+        <v>5.142857142857143</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2406,10 +2406,10 @@
         <v>21</v>
       </c>
       <c r="C143">
-        <v>4.45</v>
+        <v>4.46</v>
       </c>
       <c r="D143">
-        <v>3.833333333333333</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2420,10 +2420,10 @@
         <v>22</v>
       </c>
       <c r="C144">
-        <v>1.383333333333334</v>
+        <v>1.104761904761905</v>
       </c>
       <c r="D144">
-        <v>1.75</v>
+        <v>1.380952380952381</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2434,7 +2434,7 @@
         <v>23</v>
       </c>
       <c r="C145">
-        <v>0.16</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>3.523076923076923</v>
+        <v>3.725</v>
       </c>
       <c r="D156">
-        <v>3.153846153846154</v>
+        <v>3.375</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2602,10 +2602,10 @@
         <v>11</v>
       </c>
       <c r="C157">
-        <v>5.525</v>
+        <v>5.171428571428572</v>
       </c>
       <c r="D157">
-        <v>4.875</v>
+        <v>5.142857142857143</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2616,10 +2616,10 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>7.018181818181819</v>
+        <v>6.58</v>
       </c>
       <c r="D158">
-        <v>6.363636363636363</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2630,10 +2630,10 @@
         <v>13</v>
       </c>
       <c r="C159">
-        <v>7.62</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="D159">
-        <v>7.7</v>
+        <v>7.428571428571429</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2644,10 +2644,10 @@
         <v>14</v>
       </c>
       <c r="C160">
-        <v>8.538461538461538</v>
+        <v>8.012499999999999</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2658,10 +2658,10 @@
         <v>15</v>
       </c>
       <c r="C161">
-        <v>9.1</v>
+        <v>9.054545454545455</v>
       </c>
       <c r="D161">
-        <v>8.285714285714286</v>
+        <v>8.454545454545455</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2672,10 +2672,10 @@
         <v>16</v>
       </c>
       <c r="C162">
-        <v>9.345454545454546</v>
+        <v>9.461538461538462</v>
       </c>
       <c r="D162">
-        <v>11.09090909090909</v>
+        <v>11.15384615384615</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2686,10 +2686,10 @@
         <v>17</v>
       </c>
       <c r="C163">
-        <v>8.654545454545454</v>
+        <v>8.854545454545455</v>
       </c>
       <c r="D163">
-        <v>9.454545454545455</v>
+        <v>9.363636363636363</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2700,10 +2700,10 @@
         <v>18</v>
       </c>
       <c r="C164">
-        <v>8.942857142857143</v>
+        <v>9.26</v>
       </c>
       <c r="D164">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2714,10 +2714,10 @@
         <v>19</v>
       </c>
       <c r="C165">
-        <v>8.450000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="D165">
-        <v>8.25</v>
+        <v>8.461538461538462</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2728,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="C166">
-        <v>7.399999999999999</v>
+        <v>7.466666666666667</v>
       </c>
       <c r="D166">
         <v>7.666666666666667</v>
@@ -2742,10 +2742,10 @@
         <v>21</v>
       </c>
       <c r="C167">
-        <v>5.6</v>
+        <v>5.866666666666667</v>
       </c>
       <c r="D167">
-        <v>5.125</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2756,10 +2756,10 @@
         <v>22</v>
       </c>
       <c r="C168">
-        <v>1.56</v>
+        <v>1.575</v>
       </c>
       <c r="D168">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2770,7 +2770,7 @@
         <v>23</v>
       </c>
       <c r="C169">
-        <v>0.1066666666666667</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="D169">
         <v>0</v>

--- a/7_gunluk.xlsx
+++ b/7_gunluk.xlsx
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -866,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -894,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>2.036363636363636</v>
+        <v>2.054545454545455</v>
       </c>
       <c r="D36">
         <v>2.090909090909091</v>
@@ -1216,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1230,10 +1230,10 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1244,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>2.285714285714286</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="D60">
         <v>2.357142857142857</v>
@@ -1552,10 +1552,10 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1566,10 +1566,10 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1888,10 +1888,10 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1902,10 +1902,10 @@
         <v>9</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2224,10 +2224,10 @@
         <v>8</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2238,10 +2238,10 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2560,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2574,10 +2574,10 @@
         <v>9</v>
       </c>
       <c r="C155">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4">

--- a/7_gunluk.xlsx
+++ b/7_gunluk.xlsx
@@ -22,7 +22,7 @@
     <t>TIMEPRD</t>
   </si>
   <si>
-    <t>Random Forest</t>
+    <t>Decision Tree</t>
   </si>
   <si>
     <t>Gerçek Değerler</t>
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="D12">
-        <v>2.083333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -586,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.261538461538461</v>
+        <v>2.169230769230769</v>
       </c>
       <c r="D13">
-        <v>2.846153846153846</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -600,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.32</v>
+        <v>3.2</v>
       </c>
       <c r="D14">
-        <v>5.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -614,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.516666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="D15">
-        <v>6.083333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -628,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.18</v>
+        <v>6.36</v>
       </c>
       <c r="D16">
-        <v>7.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.659999999999999</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="D17">
-        <v>6.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.230769230769231</v>
+        <v>5.892307692307692</v>
       </c>
       <c r="D18">
-        <v>8.076923076923077</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.985714285714286</v>
+        <v>5.957142857142857</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -684,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.583333333333333</v>
+        <v>5.316666666666666</v>
       </c>
       <c r="D20">
-        <v>7.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.533333333333333</v>
+        <v>5.177777777777778</v>
       </c>
       <c r="D21">
-        <v>7.333333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -712,10 +712,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>7.111111111111111</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="D22">
-        <v>6.777777777777778</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -726,10 +726,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.0625</v>
+        <v>3.175</v>
       </c>
       <c r="D23">
-        <v>4.6875</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -740,10 +740,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.181818181818182</v>
+        <v>0.2363636363636363</v>
       </c>
       <c r="D24">
-        <v>1.636363636363636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>2.054545454545455</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>2.090909090909091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -922,10 +922,10 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>3.447058823529412</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>3.058823529411764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -936,10 +936,10 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>5.74</v>
+        <v>3.38</v>
       </c>
       <c r="D38">
-        <v>5.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -950,10 +950,10 @@
         <v>13</v>
       </c>
       <c r="C39">
-        <v>5.876923076923076</v>
+        <v>3.523076923076923</v>
       </c>
       <c r="D39">
-        <v>5.615384615384615</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -964,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>5.8</v>
+        <v>5.55</v>
       </c>
       <c r="D40">
-        <v>5.875</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -978,10 +978,10 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>5.781818181818182</v>
       </c>
       <c r="D41">
-        <v>6.545454545454546</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -992,10 +992,10 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <v>6.675</v>
+        <v>5.8</v>
       </c>
       <c r="D42">
-        <v>8.375</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="C43">
-        <v>6.893333333333334</v>
+        <v>5.533333333333333</v>
       </c>
       <c r="D43">
-        <v>7.133333333333334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1020,10 +1020,10 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>7.188888888888889</v>
+        <v>5.422222222222222</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1034,10 +1034,10 @@
         <v>19</v>
       </c>
       <c r="C45">
-        <v>7.44</v>
+        <v>5.279999999999999</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1048,10 +1048,10 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>5.173333333333333</v>
       </c>
       <c r="D46">
-        <v>6.533333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1062,10 +1062,10 @@
         <v>21</v>
       </c>
       <c r="C47">
-        <v>5.127272727272727</v>
+        <v>3.381818181818182</v>
       </c>
       <c r="D47">
-        <v>4.727272727272728</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1076,10 +1076,10 @@
         <v>22</v>
       </c>
       <c r="C48">
-        <v>1.054545454545454</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D48">
-        <v>1.636363636363636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>10</v>
       </c>
       <c r="C60">
-        <v>2.357142857142857</v>
+        <v>1.757142857142857</v>
       </c>
       <c r="D60">
-        <v>2.357142857142857</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1258,10 +1258,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>3.163636363636364</v>
+        <v>2.2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1272,10 +1272,10 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>5.644444444444444</v>
+        <v>3.311111111111111</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1286,10 +1286,10 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>6.214285714285714</v>
+        <v>4.357142857142857</v>
       </c>
       <c r="D63">
-        <v>6.214285714285714</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1300,10 +1300,10 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>6.333333333333333</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="D64">
-        <v>6.444444444444445</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1314,10 +1314,10 @@
         <v>15</v>
       </c>
       <c r="C65">
-        <v>6.428571428571429</v>
+        <v>6.185714285714285</v>
       </c>
       <c r="D65">
-        <v>6.071428571428571</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1328,10 +1328,10 @@
         <v>16</v>
       </c>
       <c r="C66">
-        <v>6.957142857142857</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D66">
-        <v>8.214285714285714</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1342,10 +1342,10 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <v>7.2875</v>
+        <v>5.6625</v>
       </c>
       <c r="D67">
-        <v>7.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1356,10 +1356,10 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>7.092307692307693</v>
+        <v>5.476923076923077</v>
       </c>
       <c r="D68">
-        <v>7.153846153846154</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1370,10 +1370,10 @@
         <v>19</v>
       </c>
       <c r="C69">
-        <v>6.733333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D69">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1384,10 +1384,10 @@
         <v>20</v>
       </c>
       <c r="C70">
-        <v>6.183333333333334</v>
+        <v>4.716666666666667</v>
       </c>
       <c r="D70">
-        <v>5.583333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1398,10 +1398,10 @@
         <v>21</v>
       </c>
       <c r="C71">
-        <v>4.54</v>
+        <v>2.98</v>
       </c>
       <c r="D71">
-        <v>4.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1412,10 +1412,10 @@
         <v>22</v>
       </c>
       <c r="C72">
-        <v>1.414285714285714</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="D72">
-        <v>1.428571428571429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1426,10 +1426,10 @@
         <v>23</v>
       </c>
       <c r="C73">
-        <v>0.1764705882352941</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>2.636363636363636</v>
+        <v>2.127272727272727</v>
       </c>
       <c r="D84">
-        <v>2.272727272727273</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1594,10 +1594,10 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>3.566666666666666</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="D85">
-        <v>3.083333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1608,10 +1608,10 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>5.24</v>
+        <v>4.08</v>
       </c>
       <c r="D86">
-        <v>4.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1622,10 +1622,10 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>5.966666666666666</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="D87">
-        <v>5.916666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1636,10 +1636,10 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>7.05</v>
+        <v>6.15</v>
       </c>
       <c r="D88">
-        <v>7.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1650,10 +1650,10 @@
         <v>15</v>
       </c>
       <c r="C89">
-        <v>6.984615384615385</v>
+        <v>6.43076923076923</v>
       </c>
       <c r="D89">
-        <v>6.538461538461538</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1664,10 +1664,10 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>7.62</v>
+        <v>6.02</v>
       </c>
       <c r="D90">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1678,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="C91">
-        <v>8.015384615384615</v>
+        <v>5.969230769230768</v>
       </c>
       <c r="D91">
-        <v>8.692307692307692</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1692,10 +1692,10 @@
         <v>18</v>
       </c>
       <c r="C92">
-        <v>8.18</v>
+        <v>6.24</v>
       </c>
       <c r="D92">
-        <v>8.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1706,10 +1706,10 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>8.18</v>
+        <v>5.4</v>
       </c>
       <c r="D93">
-        <v>7.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1720,10 +1720,10 @@
         <v>20</v>
       </c>
       <c r="C94">
-        <v>6.716666666666666</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="D94">
-        <v>6.916666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1734,10 +1734,10 @@
         <v>21</v>
       </c>
       <c r="C95">
-        <v>6.12</v>
+        <v>3.56</v>
       </c>
       <c r="D95">
-        <v>5.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1748,10 +1748,10 @@
         <v>22</v>
       </c>
       <c r="C96">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="D96">
-        <v>1.916666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1762,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="C97">
-        <v>0.08888888888888889</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C108">
-        <v>3.309090909090909</v>
+        <v>2.581818181818182</v>
       </c>
       <c r="D108">
-        <v>3.363636363636364</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1930,10 +1930,10 @@
         <v>11</v>
       </c>
       <c r="C109">
-        <v>4.64</v>
+        <v>3.16</v>
       </c>
       <c r="D109">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1944,10 +1944,10 @@
         <v>12</v>
       </c>
       <c r="C110">
-        <v>6.466666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D110">
-        <v>6.777777777777778</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1958,10 +1958,10 @@
         <v>13</v>
       </c>
       <c r="C111">
-        <v>7.127272727272728</v>
+        <v>5.272727272727272</v>
       </c>
       <c r="D111">
-        <v>7.454545454545454</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1972,10 +1972,10 @@
         <v>14</v>
       </c>
       <c r="C112">
-        <v>8.036363636363637</v>
+        <v>7.018181818181819</v>
       </c>
       <c r="D112">
-        <v>7.363636363636363</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1986,10 +1986,10 @@
         <v>15</v>
       </c>
       <c r="C113">
-        <v>8.254545454545454</v>
+        <v>7.109090909090909</v>
       </c>
       <c r="D113">
-        <v>7.272727272727272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2000,10 +2000,10 @@
         <v>16</v>
       </c>
       <c r="C114">
-        <v>8.82</v>
+        <v>7.38</v>
       </c>
       <c r="D114">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2014,10 +2014,10 @@
         <v>17</v>
       </c>
       <c r="C115">
-        <v>8.4</v>
+        <v>7.018181818181819</v>
       </c>
       <c r="D115">
-        <v>8.818181818181818</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2028,10 +2028,10 @@
         <v>18</v>
       </c>
       <c r="C116">
-        <v>8.199999999999999</v>
+        <v>6.506666666666666</v>
       </c>
       <c r="D116">
-        <v>8.066666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2042,10 +2042,10 @@
         <v>19</v>
       </c>
       <c r="C117">
-        <v>6.8</v>
+        <v>5.057142857142857</v>
       </c>
       <c r="D117">
-        <v>6.214285714285714</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2056,10 +2056,10 @@
         <v>20</v>
       </c>
       <c r="C118">
-        <v>6.107692307692307</v>
+        <v>4.246153846153846</v>
       </c>
       <c r="D118">
-        <v>5.846153846153846</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2070,10 +2070,10 @@
         <v>21</v>
       </c>
       <c r="C119">
-        <v>3.844444444444445</v>
+        <v>2.422222222222222</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2084,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="C120">
-        <v>1.78</v>
+        <v>0.38</v>
       </c>
       <c r="D120">
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2098,7 +2098,7 @@
         <v>23</v>
       </c>
       <c r="C121">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>2.171428571428572</v>
+        <v>1.085714285714286</v>
       </c>
       <c r="D132">
-        <v>1.857142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2266,10 +2266,10 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>2.4</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="D133">
-        <v>2.142857142857143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2280,10 +2280,10 @@
         <v>12</v>
       </c>
       <c r="C134">
-        <v>4.711111111111111</v>
+        <v>3.377777777777778</v>
       </c>
       <c r="D134">
-        <v>4.666666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2294,10 +2294,10 @@
         <v>13</v>
       </c>
       <c r="C135">
-        <v>5.4</v>
+        <v>3.78</v>
       </c>
       <c r="D135">
-        <v>4.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2308,10 +2308,10 @@
         <v>14</v>
       </c>
       <c r="C136">
-        <v>5.885714285714286</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="D136">
-        <v>5.857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2322,10 +2322,10 @@
         <v>15</v>
       </c>
       <c r="C137">
-        <v>5.866666666666666</v>
+        <v>5.48</v>
       </c>
       <c r="D137">
-        <v>5.933333333333334</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2336,10 +2336,10 @@
         <v>16</v>
       </c>
       <c r="C138">
-        <v>6.646153846153847</v>
+        <v>5.292307692307692</v>
       </c>
       <c r="D138">
-        <v>7.846153846153846</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2350,10 +2350,10 @@
         <v>17</v>
       </c>
       <c r="C139">
-        <v>6.463157894736842</v>
+        <v>5.063157894736842</v>
       </c>
       <c r="D139">
-        <v>7.052631578947368</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2364,10 +2364,10 @@
         <v>18</v>
       </c>
       <c r="C140">
-        <v>5.76</v>
+        <v>5</v>
       </c>
       <c r="D140">
-        <v>6.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2378,10 +2378,10 @@
         <v>19</v>
       </c>
       <c r="C141">
-        <v>6.727272727272728</v>
+        <v>5.090909090909091</v>
       </c>
       <c r="D141">
-        <v>6.727272727272728</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2392,10 +2392,10 @@
         <v>20</v>
       </c>
       <c r="C142">
-        <v>5.685714285714285</v>
+        <v>4.2</v>
       </c>
       <c r="D142">
-        <v>5.142857142857143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2406,10 +2406,10 @@
         <v>21</v>
       </c>
       <c r="C143">
-        <v>4.46</v>
+        <v>2.76</v>
       </c>
       <c r="D143">
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2420,10 +2420,10 @@
         <v>22</v>
       </c>
       <c r="C144">
-        <v>1.104761904761905</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="D144">
-        <v>1.380952380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2434,7 +2434,7 @@
         <v>23</v>
       </c>
       <c r="C145">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -2588,10 +2588,10 @@
         <v>10</v>
       </c>
       <c r="C156">
-        <v>3.725</v>
+        <v>2.8125</v>
       </c>
       <c r="D156">
-        <v>3.375</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2602,10 +2602,10 @@
         <v>11</v>
       </c>
       <c r="C157">
-        <v>5.171428571428572</v>
+        <v>3.4</v>
       </c>
       <c r="D157">
-        <v>5.142857142857143</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2616,10 +2616,10 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>6.58</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="D158">
-        <v>6.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2630,10 +2630,10 @@
         <v>13</v>
       </c>
       <c r="C159">
-        <v>7.857142857142857</v>
+        <v>6.2</v>
       </c>
       <c r="D159">
-        <v>7.428571428571429</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2644,10 +2644,10 @@
         <v>14</v>
       </c>
       <c r="C160">
-        <v>8.012499999999999</v>
+        <v>6.85</v>
       </c>
       <c r="D160">
-        <v>7.8125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2658,10 +2658,10 @@
         <v>15</v>
       </c>
       <c r="C161">
-        <v>9.054545454545455</v>
+        <v>7.145454545454545</v>
       </c>
       <c r="D161">
-        <v>8.454545454545455</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2672,10 +2672,10 @@
         <v>16</v>
       </c>
       <c r="C162">
-        <v>9.461538461538462</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="D162">
-        <v>11.15384615384615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2686,10 +2686,10 @@
         <v>17</v>
       </c>
       <c r="C163">
-        <v>8.854545454545455</v>
+        <v>7.018181818181819</v>
       </c>
       <c r="D163">
-        <v>9.363636363636363</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2700,10 +2700,10 @@
         <v>18</v>
       </c>
       <c r="C164">
-        <v>9.26</v>
+        <v>7.12</v>
       </c>
       <c r="D164">
-        <v>9.699999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2714,10 +2714,10 @@
         <v>19</v>
       </c>
       <c r="C165">
-        <v>8.6</v>
+        <v>5.892307692307692</v>
       </c>
       <c r="D165">
-        <v>8.461538461538462</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2728,10 +2728,10 @@
         <v>20</v>
       </c>
       <c r="C166">
-        <v>7.466666666666667</v>
+        <v>4.6</v>
       </c>
       <c r="D166">
-        <v>7.666666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2742,10 +2742,10 @@
         <v>21</v>
       </c>
       <c r="C167">
-        <v>5.866666666666667</v>
+        <v>3.45</v>
       </c>
       <c r="D167">
-        <v>5.416666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2756,10 +2756,10 @@
         <v>22</v>
       </c>
       <c r="C168">
-        <v>1.575</v>
+        <v>0.15</v>
       </c>
       <c r="D168">
-        <v>1.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2770,7 +2770,7 @@
         <v>23</v>
       </c>
       <c r="C169">
-        <v>0.1733333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="D169">
         <v>0</v>
